--- a/数据处理/data_sheets.xlsx
+++ b/数据处理/data_sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13548" windowHeight="8675" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="19140" windowHeight="8700" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user_data" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -194,22 +194,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,17 +232,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,9 +246,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,11 +277,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,7 +301,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -293,26 +309,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,14 +325,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,19 +347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,25 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,31 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,19 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,25 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,11 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,15 +612,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -624,17 +621,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -671,16 +671,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -689,115 +689,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5583,7 +5583,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6047,8 +6047,8 @@
   <sheetPr/>
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -10723,7 +10723,7 @@
   <dimension ref="A1:AE274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -36973,12 +36973,14 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -37475,8 +37477,8 @@
   <sheetPr/>
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
